--- a/Paper Figures/Conformance Testing/QPE results.xlsx
+++ b/Paper Figures/Conformance Testing/QPE results.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Work\Quantum-Algorithm-Implementations\Paper Figures\Conformance Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Quantum\Quantum-Algorithm-Implementations\Paper Figures\Conformance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FFE9BE-E763-4795-85FA-421EFF0E2F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4808E82F-2829-4EC0-AB7A-964224210471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4755" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="19">
   <si>
     <t>Qiskit, input of (8, pi/2)</t>
   </si>
@@ -75,10 +85,13 @@
     <t>Qiskit, input of (7, 13*pi/9)</t>
   </si>
   <si>
-    <t>Cirq, input of (7, 13*pi/9</t>
+    <t>Cirq, input of (7, 13*pi/9)</t>
   </si>
   <si>
-    <t>Q#, input of (7, 13*pi/9</t>
+    <t>Q#, input of (7, 13*pi/9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -129,9 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,30 +428,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:X181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,8 +482,19 @@
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.25</v>
       </c>
@@ -485,8 +513,32 @@
       <c r="K4" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -497,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,8 +568,19 @@
       <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>0.75</v>
       </c>
@@ -536,8 +599,32 @@
       <c r="K8" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -548,7 +635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,129 +655,4283 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>0.375</v>
       </c>
       <c r="C12" s="1">
-        <v>7614</v>
+        <v>7576</v>
       </c>
       <c r="F12" s="1">
         <v>0.375</v>
       </c>
       <c r="G12" s="1">
-        <v>7555</v>
+        <v>7610</v>
       </c>
       <c r="J12" s="1">
         <v>0.375</v>
       </c>
       <c r="K12" s="1">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1253</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1208</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C14" s="1">
+        <v>359</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="G14" s="1">
+        <v>377</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="K14" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>218</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>235</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>121</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>129</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="C17" s="2">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="G17" s="2">
+        <v>89</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="K17" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C18" s="2">
+        <v>66</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G18" s="2">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="K18" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C19" s="1">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G19" s="1">
+        <v>55</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="K19" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="G20" s="1">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="K22" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C23" s="2">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G23" s="2">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="K23" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C24" s="2">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="G24" s="2">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C25" s="2">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="G25" s="2">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="2">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="K26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C27" s="2">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="G27" s="2">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="K27" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="1">
+        <v>137</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G31" s="1">
+        <v>143</v>
+      </c>
+      <c r="J31" s="1">
         <v>0.359375</v>
       </c>
-      <c r="C16" s="1">
-        <v>9377</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="K31" s="1">
+        <v>9324</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>0.359375</v>
       </c>
-      <c r="G16" s="1">
-        <v>9332</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="C32" s="1">
+        <v>9375</v>
+      </c>
+      <c r="F32" s="1">
         <v>0.359375</v>
       </c>
-      <c r="K16" s="1">
-        <v>9348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G32" s="1">
+        <v>9340</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="K32" s="1">
+        <v>290</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C33" s="1">
+        <v>235</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.484375</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="K33" s="1">
+        <v>137</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0.265625</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.328125</v>
+      </c>
+      <c r="G34" s="1">
+        <v>61</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.328125</v>
+      </c>
+      <c r="K34" s="1">
+        <v>57</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="C35" s="1">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="K35" s="1">
+        <v>30</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>0.453125</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="G36" s="1">
+        <v>260</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="K36" s="1">
+        <v>20</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>0.328125</v>
+      </c>
+      <c r="C37" s="1">
+        <v>58</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.296875</v>
+      </c>
+      <c r="K37" s="1">
+        <v>18</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>0.296875</v>
+      </c>
+      <c r="C38" s="1">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F38" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="K38" s="1">
+        <v>17</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>0.421875</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.421875</v>
+      </c>
+      <c r="G39" s="1">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.421875</v>
+      </c>
+      <c r="K39" s="1">
+        <v>13</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C40" s="1">
+        <v>27</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="K40" s="1">
+        <v>11</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>0.890625</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.234375</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C42" s="1">
+        <v>21</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.296875</v>
+      </c>
+      <c r="G42" s="1">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.265625</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>0.140625</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="G44" s="1">
+        <v>34</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.453125</v>
+      </c>
+      <c r="K44" s="1">
+        <v>6</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.765625</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="K45" s="1">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="G47" s="1">
+        <v>11</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.234375</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="G48" s="1">
+        <v>6</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.265625</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>0.203125</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.140625</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>0.234375</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>0.734375</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.140625</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.203125</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>0.953125</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.984375</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.546875</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.546875</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.640625</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.640625</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>0.484375</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.859375</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.484375</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.453125</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.953125</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.578125</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.984375</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S81" s="3"/>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
         <v>0.71875</v>
       </c>
-      <c r="C20" s="1">
-        <v>4942</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="C82" s="1">
+        <v>4969</v>
+      </c>
+      <c r="F82" s="1">
         <v>0.71875</v>
       </c>
-      <c r="G20" s="1">
-        <v>4954</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="G82" s="1">
+        <v>5010</v>
+      </c>
+      <c r="J82" s="1">
         <v>0.71875</v>
       </c>
-      <c r="K20" s="1">
-        <v>4867</v>
+      <c r="K82" s="1">
+        <v>4903</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.7265625</v>
+      </c>
+      <c r="G83" s="1">
+        <v>3207</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.7265625</v>
+      </c>
+      <c r="K83" s="1">
+        <v>3204</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>0.5078125</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.734375</v>
+      </c>
+      <c r="G84" s="1">
+        <v>372</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.7109375</v>
+      </c>
+      <c r="K84" s="1">
+        <v>466</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>0.7265625</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3171</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.765625</v>
+      </c>
+      <c r="G85" s="1">
+        <v>32</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.734375</v>
+      </c>
+      <c r="K85" s="1">
+        <v>427</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C86" s="1">
+        <v>48</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.7421875</v>
+      </c>
+      <c r="G86" s="1">
+        <v>153</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="K86" s="1">
+        <v>162</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>0.828125</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="G87" s="1">
+        <v>164</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.7421875</v>
+      </c>
+      <c r="K87" s="1">
+        <v>160</v>
+      </c>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>0.7578125</v>
+      </c>
+      <c r="C88" s="1">
+        <v>53</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.7734375</v>
+      </c>
+      <c r="G88" s="1">
+        <v>28</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.6953125</v>
+      </c>
+      <c r="K88" s="1">
+        <v>95</v>
+      </c>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="C89" s="1">
+        <v>176</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="G89" s="1">
+        <v>19</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K89" s="1">
+        <v>78</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.7109375</v>
+      </c>
+      <c r="G90" s="1">
+        <v>454</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="K90" s="1">
+        <v>56</v>
+      </c>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>0.734375</v>
+      </c>
+      <c r="C91" s="1">
+        <v>406</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.8828125</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.6796875</v>
+      </c>
+      <c r="K91" s="1">
+        <v>41</v>
+      </c>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>0.7421875</v>
+      </c>
+      <c r="C92" s="1">
+        <v>144</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.6640625</v>
+      </c>
+      <c r="G92" s="1">
+        <v>19</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.7578125</v>
+      </c>
+      <c r="K92" s="1">
+        <v>38</v>
+      </c>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>0.7109375</v>
+      </c>
+      <c r="C93" s="1">
+        <v>475</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.6953125</v>
+      </c>
+      <c r="G93" s="1">
+        <v>78</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.765625</v>
+      </c>
+      <c r="K93" s="1">
+        <v>30</v>
+      </c>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>0.8359375</v>
+      </c>
+      <c r="C94" s="1">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.7890625</v>
+      </c>
+      <c r="G94" s="1">
+        <v>11</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="K94" s="1">
+        <v>24</v>
+      </c>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>0.265625</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.3515625</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="K95" s="1">
+        <v>21</v>
+      </c>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>0.484375</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.640625</v>
+      </c>
+      <c r="G96" s="1">
+        <v>8</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.7734375</v>
+      </c>
+      <c r="K96" s="1">
+        <v>20</v>
+      </c>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>0.8828125</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="G97" s="1">
+        <v>38</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="K97" s="1">
+        <v>16</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>0.6015625</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G98" s="1">
+        <v>88</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.8046875</v>
+      </c>
+      <c r="K98" s="1">
+        <v>15</v>
+      </c>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>0.6796875</v>
+      </c>
+      <c r="C99" s="1">
+        <v>38</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="G99" s="1">
+        <v>10</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.6640625</v>
+      </c>
+      <c r="K99" s="1">
+        <v>14</v>
+      </c>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C100" s="1">
+        <v>80</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="G100" s="1">
+        <v>3</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.6484375</v>
+      </c>
+      <c r="K100" s="1">
+        <v>14</v>
+      </c>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>0.1640625</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.7578125</v>
+      </c>
+      <c r="G101" s="1">
+        <v>45</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.7890625</v>
+      </c>
+      <c r="K101" s="1">
+        <v>13</v>
+      </c>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>0.6953125</v>
+      </c>
+      <c r="C102" s="1">
+        <v>87</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.328125</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="K102" s="1">
+        <v>11</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>0.7734375</v>
+      </c>
+      <c r="C103" s="1">
+        <v>25</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.5234375</v>
+      </c>
+      <c r="G103" s="1">
+        <v>3</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.640625</v>
+      </c>
+      <c r="K103" s="1">
+        <v>9</v>
+      </c>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="C104" s="1">
+        <v>18</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.6171875</v>
+      </c>
+      <c r="G104" s="1">
+        <v>3</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.8203125</v>
+      </c>
+      <c r="K104" s="1">
+        <v>8</v>
+      </c>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>0.5859375</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.6796875</v>
+      </c>
+      <c r="G105" s="1">
+        <v>40</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.6171875</v>
+      </c>
+      <c r="K105" s="1">
+        <v>6</v>
+      </c>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>0.9296875</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G106" s="1">
+        <v>6</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.6328125</v>
+      </c>
+      <c r="K106" s="1">
+        <v>6</v>
+      </c>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>0.6640625</v>
+      </c>
+      <c r="C107" s="1">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.6328125</v>
+      </c>
+      <c r="G107" s="1">
+        <v>9</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.8359375</v>
+      </c>
+      <c r="K107" s="1">
+        <v>5</v>
+      </c>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>0.6484375</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.359375</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="K108" s="1">
+        <v>5</v>
+      </c>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>0.8984375</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.4296875</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="K109" s="1">
+        <v>5</v>
+      </c>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>0.6171875</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.953125</v>
+      </c>
+      <c r="K110" s="1">
+        <v>5</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>0.765625</v>
+      </c>
+      <c r="C111" s="1">
+        <v>31</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.5546875</v>
+      </c>
+      <c r="G111" s="1">
+        <v>6</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0.5859375</v>
+      </c>
+      <c r="K111" s="1">
+        <v>5</v>
+      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="C112" s="1">
+        <v>16</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="G112" s="1">
+        <v>13</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.9140625</v>
+      </c>
+      <c r="K112" s="1">
+        <v>4</v>
+      </c>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>0.7890625</v>
+      </c>
+      <c r="C113" s="1">
+        <v>14</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.8671875</v>
+      </c>
+      <c r="G113" s="1">
+        <v>4</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="K113" s="1">
+        <v>4</v>
+      </c>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>0.8671875</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.6015625</v>
+      </c>
+      <c r="G114" s="1">
+        <v>5</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.6015625</v>
+      </c>
+      <c r="K114" s="1">
+        <v>4</v>
+      </c>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C115" s="1">
+        <v>7</v>
+      </c>
+      <c r="F115" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="K115" s="1">
+        <v>4</v>
+      </c>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>0.6328125</v>
+      </c>
+      <c r="C116" s="1">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.8046875</v>
+      </c>
+      <c r="G116" s="1">
+        <v>10</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="K116" s="1">
+        <v>4</v>
+      </c>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.1796875</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0.8828125</v>
+      </c>
+      <c r="K117" s="1">
+        <v>4</v>
+      </c>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="K118" s="1">
+        <v>4</v>
+      </c>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>0.4765625</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="G119" s="1">
+        <v>12</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0.828125</v>
+      </c>
+      <c r="K119" s="1">
+        <v>4</v>
+      </c>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>0.2734375</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.828125</v>
+      </c>
+      <c r="G120" s="1">
+        <v>7</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0.5234375</v>
+      </c>
+      <c r="K120" s="1">
+        <v>4</v>
+      </c>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.8203125</v>
+      </c>
+      <c r="G121" s="1">
+        <v>12</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="K121" s="1">
+        <v>3</v>
+      </c>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.859375</v>
+      </c>
+      <c r="G122" s="1">
+        <v>3</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0.8984375</v>
+      </c>
+      <c r="K122" s="1">
+        <v>3</v>
+      </c>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>0.5390625</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0.859375</v>
+      </c>
+      <c r="K123" s="1">
+        <v>3</v>
+      </c>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>0.640625</v>
+      </c>
+      <c r="C124" s="1">
+        <v>8</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.4609375</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0.9765625</v>
+      </c>
+      <c r="K124" s="1">
+        <v>3</v>
+      </c>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="C125" s="1">
+        <v>6</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.578125</v>
+      </c>
+      <c r="G125" s="1">
+        <v>4</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0.1171875</v>
+      </c>
+      <c r="K125" s="1">
+        <v>3</v>
+      </c>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S125" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.984375</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="K126" s="1">
+        <v>3</v>
+      </c>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>0.8046875</v>
+      </c>
+      <c r="C127" s="1">
+        <v>9</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="G127" s="1">
+        <v>3</v>
+      </c>
+      <c r="J127" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K127" s="1">
+        <v>3</v>
+      </c>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>0.5703125</v>
+      </c>
+      <c r="C128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.3359375</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0.8515625</v>
+      </c>
+      <c r="K128" s="1">
+        <v>3</v>
+      </c>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>0.4453125</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.890625</v>
+      </c>
+      <c r="G129" s="1">
+        <v>5</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="K129" s="1">
+        <v>3</v>
+      </c>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S129" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="G130" s="1">
+        <v>8</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0.4921875</v>
+      </c>
+      <c r="K130" s="1">
+        <v>3</v>
+      </c>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.8359375</v>
+      </c>
+      <c r="G131" s="1">
+        <v>5</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0.546875</v>
+      </c>
+      <c r="K131" s="1">
+        <v>3</v>
+      </c>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="C132" s="1">
+        <v>11</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="G132" s="1">
+        <v>3</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="K132" s="1">
+        <v>2</v>
+      </c>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>0.8203125</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.8515625</v>
+      </c>
+      <c r="G133" s="1">
+        <v>3</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0.5390625</v>
+      </c>
+      <c r="K133" s="1">
+        <v>2</v>
+      </c>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C134" s="1">
+        <v>7</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.6484375</v>
+      </c>
+      <c r="G134" s="1">
+        <v>12</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="K134" s="1">
+        <v>2</v>
+      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>0.296875</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.453125</v>
+      </c>
+      <c r="G135" s="1">
+        <v>2</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="K135" s="1">
+        <v>2</v>
+      </c>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0.9296875</v>
+      </c>
+      <c r="K136" s="1">
+        <v>2</v>
+      </c>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.3828125</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0.8671875</v>
+      </c>
+      <c r="K137" s="1">
+        <v>2</v>
+      </c>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S137" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>0.953125</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="K138" s="1">
+        <v>2</v>
+      </c>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>0.4140625</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.1953125</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0.234375</v>
+      </c>
+      <c r="K139" s="1">
+        <v>2</v>
+      </c>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>0.8515625</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0.5546875</v>
+      </c>
+      <c r="K140" s="1">
+        <v>2</v>
+      </c>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>0.9921875</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.953125</v>
+      </c>
+      <c r="G141" s="1">
+        <v>2</v>
+      </c>
+      <c r="J141" s="1">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="K141" s="1">
+        <v>2</v>
+      </c>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>0.5234375</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="G142" s="1">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0.203125</v>
+      </c>
+      <c r="K142" s="1">
+        <v>2</v>
+      </c>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S142" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="G143" s="1">
+        <v>3</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="K143" s="1">
+        <v>2</v>
+      </c>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S143" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>0.4609375</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K144" s="1">
+        <v>2</v>
+      </c>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S144" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.9609375</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0.5703125</v>
+      </c>
+      <c r="K145" s="1">
+        <v>2</v>
+      </c>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C146" s="1">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0.3203125</v>
+      </c>
+      <c r="K146" s="1">
+        <v>2</v>
+      </c>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2</v>
+      </c>
+      <c r="J147" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="K147" s="1">
+        <v>2</v>
+      </c>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S147" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>0.578125</v>
+      </c>
+      <c r="C148" s="1">
+        <v>9</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.1015625</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="K148" s="1">
+        <v>2</v>
+      </c>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <v>0.4921875</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0.9453125</v>
+      </c>
+      <c r="K149" s="1">
+        <v>2</v>
+      </c>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S149" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <v>0.2578125</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.9140625</v>
+      </c>
+      <c r="G150" s="1">
+        <v>3</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0.3984375</v>
+      </c>
+      <c r="K150" s="1">
+        <v>2</v>
+      </c>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <v>0.859375</v>
+      </c>
+      <c r="C151" s="1">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.546875</v>
+      </c>
+      <c r="G151" s="1">
+        <v>7</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0.484375</v>
+      </c>
+      <c r="K151" s="1">
+        <v>1</v>
+      </c>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <v>0.4296875</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.5703125</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0.4140625</v>
+      </c>
+      <c r="K152" s="1">
+        <v>1</v>
+      </c>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B153" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G153" s="1">
+        <v>2</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="K153" s="1">
+        <v>1</v>
+      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="K154" s="1">
+        <v>1</v>
+      </c>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B155" s="1">
+        <v>0.546875</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2</v>
+      </c>
+      <c r="F155" s="1">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="K155" s="1">
+        <v>1</v>
+      </c>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S155" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B156" s="1">
+        <v>0.234375</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.9765625</v>
+      </c>
+      <c r="G156" s="1">
+        <v>2</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0.421875</v>
+      </c>
+      <c r="K156" s="1">
+        <v>1</v>
+      </c>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S156" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B157" s="1">
+        <v>0.2109375</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.9453125</v>
+      </c>
+      <c r="G157" s="1">
+        <v>2</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="K157" s="1">
+        <v>1</v>
+      </c>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S157" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B158" s="1">
+        <v>0.328125</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.2890625</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0.4296875</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1</v>
+      </c>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B159" s="1">
+        <v>0.890625</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="F159" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0.9921875</v>
+      </c>
+      <c r="K159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B160" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.9296875</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0.109375</v>
+      </c>
+      <c r="K160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B161" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.8984375</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0.1328125</v>
+      </c>
+      <c r="K161" s="1">
+        <v>1</v>
+      </c>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B162" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C162" s="1">
+        <v>4</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.203125</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0.1796875</v>
+      </c>
+      <c r="K162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S162" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B163" s="1">
+        <v>0.9609375</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.484375</v>
+      </c>
+      <c r="G163" s="1">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0.4765625</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S163" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B164" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.5859375</v>
+      </c>
+      <c r="G164" s="1">
+        <v>2</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0.1015625</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1</v>
+      </c>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S164" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B165" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.2578125</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0.2890625</v>
+      </c>
+      <c r="K165" s="1">
+        <v>1</v>
+      </c>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S165" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B166" s="1">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.2109375</v>
+      </c>
+      <c r="G166" s="1">
+        <v>1</v>
+      </c>
+      <c r="J166" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="K166" s="1">
+        <v>1</v>
+      </c>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S166" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B167" s="1">
+        <v>0.3984375</v>
+      </c>
+      <c r="C167" s="1">
+        <v>3</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1">
+        <v>0.265625</v>
+      </c>
+      <c r="K167" s="1">
+        <v>1</v>
+      </c>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S167" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B168" s="1">
+        <v>0.9140625</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0.1953125</v>
+      </c>
+      <c r="K168" s="1">
+        <v>1</v>
+      </c>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S168" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B169" s="1">
+        <v>0.2265625</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J169" s="1">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K169" s="1">
+        <v>1</v>
+      </c>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S169" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B170" s="1">
+        <v>0.109375</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K170" s="1">
+        <v>1</v>
+      </c>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S170" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B171" s="1">
+        <v>0.203125</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0.453125</v>
+      </c>
+      <c r="K171" s="1">
+        <v>1</v>
+      </c>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S171" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B172" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0</v>
+      </c>
+      <c r="K172" s="1">
+        <v>1</v>
+      </c>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J173" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="K173" s="1">
+        <v>1</v>
+      </c>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J174" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="K174" s="1">
+        <v>1</v>
+      </c>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S174" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J175" s="1">
+        <v>0.5078125</v>
+      </c>
+      <c r="K175" s="1">
+        <v>1</v>
+      </c>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J176" s="1">
+        <v>0.890625</v>
+      </c>
+      <c r="K176" s="1">
+        <v>1</v>
+      </c>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J177" s="1">
+        <v>0.4609375</v>
+      </c>
+      <c r="K177" s="1">
+        <v>1</v>
+      </c>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J178" s="1">
+        <v>0.984375</v>
+      </c>
+      <c r="K178" s="1">
+        <v>1</v>
+      </c>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J179" s="1">
+        <v>0.3359375</v>
+      </c>
+      <c r="K179" s="1">
+        <v>1</v>
+      </c>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J180" s="1">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="K180" s="1">
+        <v>1</v>
+      </c>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S180" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J181" s="1">
+        <v>0.2734375</v>
+      </c>
+      <c r="K181" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>